--- a/TO_REVIEW.XLSX
+++ b/TO_REVIEW.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>STL</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>map</t>
+  </si>
+  <si>
+    <t>Problem 3 Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
+  </si>
+  <si>
+    <t>Optimized Hashmap</t>
   </si>
 </sst>
 </file>
@@ -72,8 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,39 +366,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C5"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="30.5703125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/TO_REVIEW.XLSX
+++ b/TO_REVIEW.XLSX
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STL</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Optimized Hashmap</t>
+  </si>
+  <si>
+    <t>Problem 17</t>
+  </si>
+  <si>
+    <t>string initlialization</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,6 +420,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TO_REVIEW.XLSX
+++ b/TO_REVIEW.XLSX
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>STL</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>string initlialization</t>
+  </si>
+  <si>
+    <t>Red Black Tree</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,6 +398,9 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>

--- a/TO_REVIEW.XLSX
+++ b/TO_REVIEW.XLSX
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="226">
   <si>
     <t>STL</t>
   </si>
@@ -55,6 +57,648 @@
   </si>
   <si>
     <t>Red Black Tree</t>
+  </si>
+  <si>
+    <t>c++</t>
+  </si>
+  <si>
+    <t>multi thread basic</t>
+  </si>
+  <si>
+    <t>sql basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution </t>
+  </si>
+  <si>
+    <t>Problem 48</t>
+  </si>
+  <si>
+    <t>Problem 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyday code activity </t>
+  </si>
+  <si>
+    <t>P 225</t>
+  </si>
+  <si>
+    <t>P 206</t>
+  </si>
+  <si>
+    <t>Interview 10.01</t>
+  </si>
+  <si>
+    <t>P 994</t>
+  </si>
+  <si>
+    <t>Problem 5179</t>
+  </si>
+  <si>
+    <t>Problem 55</t>
+  </si>
+  <si>
+    <t>To Be committed</t>
+  </si>
+  <si>
+    <t>Problem 15 三数之和</t>
+  </si>
+  <si>
+    <t>Problem 18 四数之和</t>
+  </si>
+  <si>
+    <t>Problem 22 括号生成</t>
+  </si>
+  <si>
+    <t>Problem 33 搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>Problem 46 全排列</t>
+  </si>
+  <si>
+    <t>Problem 47 全排列 II</t>
+  </si>
+  <si>
+    <t>Problem 48 旋转图像</t>
+  </si>
+  <si>
+    <t>Problem 57 和为s的连续正序列</t>
+  </si>
+  <si>
+    <t>Problem 1375 灯泡开关</t>
+  </si>
+  <si>
+    <t>Problem 1374 生成每种字符都是奇数个的字符串</t>
+  </si>
+  <si>
+    <t>Problem 1376 通知所有员工所需的时间</t>
+  </si>
+  <si>
+    <t>Problem 39 组合总和</t>
+  </si>
+  <si>
+    <t>Problem 1380 矩阵中的幸运数</t>
+  </si>
+  <si>
+    <t>Problem 1381 设计一个支持增量操作的栈</t>
+  </si>
+  <si>
+    <t>Problem 40 组合总和II</t>
+  </si>
+  <si>
+    <t>Problem 1394 找出数组中的幸运数</t>
+  </si>
+  <si>
+    <t>Problem 1395 统计作战单位数</t>
+  </si>
+  <si>
+    <t>Problem 1396 设计地铁系统</t>
+  </si>
+  <si>
+    <t>Problem 49 字母异位词分组</t>
+  </si>
+  <si>
+    <t>Problem 1403 非递增顺序的最小子序列</t>
+  </si>
+  <si>
+    <t>Problem 1404 将二进制表示减到1的步骤数</t>
+  </si>
+  <si>
+    <t>Problem 1408 数组中的字符串匹配</t>
+  </si>
+  <si>
+    <t>Problem 1409 查询带键的排列</t>
+  </si>
+  <si>
+    <t>Problem 1410 HTML实体解析器</t>
+  </si>
+  <si>
+    <t>Problem 50 Pow(x,n)</t>
+  </si>
+  <si>
+    <t>Problem 9 回文数</t>
+  </si>
+  <si>
+    <t>Problem 54 螺旋矩阵</t>
+  </si>
+  <si>
+    <t>Problem 55 跳跃游戏</t>
+  </si>
+  <si>
+    <t>Problem 13 罗马数字转整数</t>
+  </si>
+  <si>
+    <t>Problem 16 最接近的三数之和</t>
+  </si>
+  <si>
+    <t>Problem 5388 重新格式化字符串</t>
+  </si>
+  <si>
+    <t>Problem 5372 逐步求和得到正数的最小值</t>
+  </si>
+  <si>
+    <t>Problem 5389 点菜展示表</t>
+  </si>
+  <si>
+    <t>Problem 56 合并区间</t>
+  </si>
+  <si>
+    <t>中等</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>linked list</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>hashtable</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>ZigZag Conversion</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>Palindrome Number</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Integer to Roman</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>3Sum Closest</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>4Sum</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>heap</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>Implement strStr()</t>
+  </si>
+  <si>
+    <t>KMP</t>
+  </si>
+  <si>
+    <t>rolling hash</t>
+  </si>
+  <si>
+    <t>Divide Two Integers</t>
+  </si>
+  <si>
+    <t>Substring with Concatenation of All Words</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>permutation</t>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Search for a Range</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>Combination Sum II</t>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Permutations II</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Anagrams</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>N-Queens</t>
+  </si>
+  <si>
+    <t>N-Queens II</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>red-black tree</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t>Spiral Matrix II</t>
+  </si>
+  <si>
+    <t>Permutation Sequence</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>Valid Number</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>Text Justification</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Maximal Rectangle</t>
+  </si>
+  <si>
+    <t>Partition List</t>
+  </si>
+  <si>
+    <t>Scramble String</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Gray Code</t>
+  </si>
+  <si>
+    <t>Subsets II</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>morris</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees II</t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Interleaving String</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Recover Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Tr</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder T</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Convert Sorted List to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>Path Sum II</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock III</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Word Ladder II</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>shortest path</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Sum Root to Leaf Numbers</t>
+  </si>
+  <si>
+    <t>Surrounded Regions</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>problem1</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -110,6 +754,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D176" totalsRowShown="0">
+  <autoFilter ref="A1:D176"/>
+  <sortState ref="A2:F176">
+    <sortCondition descending="1" ref="D1:D176"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="no"/>
+    <tableColumn id="2" name="problem"/>
+    <tableColumn id="3" name="difficulty"/>
+    <tableColumn id="4" name="frequency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F7"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,54 +1046,4952 @@
     <col min="1" max="16384" width="30.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>94</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>106</v>
+      </c>
+      <c r="B64" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>112</v>
+      </c>
+      <c r="B67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>114</v>
+      </c>
+      <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>116</v>
+      </c>
+      <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>128</v>
+      </c>
+      <c r="B70" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>130</v>
+      </c>
+      <c r="B71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>132</v>
+      </c>
+      <c r="B72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>38</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>40</v>
+      </c>
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>41</v>
+      </c>
+      <c r="B85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>45</v>
+      </c>
+      <c r="B87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>48</v>
+      </c>
+      <c r="B89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>54</v>
+      </c>
+      <c r="B90" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>55</v>
+      </c>
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>59</v>
+      </c>
+      <c r="B92" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>61</v>
+      </c>
+      <c r="B93" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>66</v>
+      </c>
+      <c r="B94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>68</v>
+      </c>
+      <c r="B95" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>75</v>
+      </c>
+      <c r="B96" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>76</v>
+      </c>
+      <c r="B97" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>80</v>
+      </c>
+      <c r="B98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>84</v>
+      </c>
+      <c r="B99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>87</v>
+      </c>
+      <c r="B100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>89</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>90</v>
+      </c>
+      <c r="B102" t="s">
+        <v>171</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>92</v>
+      </c>
+      <c r="B103" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>97</v>
+      </c>
+      <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>101</v>
+      </c>
+      <c r="B106" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>113</v>
+      </c>
+      <c r="B108" t="s">
+        <v>198</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>115</v>
+      </c>
+      <c r="B109" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>209</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>75</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>30</v>
+      </c>
+      <c r="B115" t="s">
+        <v>107</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>58</v>
+      </c>
+      <c r="B117" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>60</v>
+      </c>
+      <c r="B118" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>71</v>
+      </c>
+      <c r="B119" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>85</v>
+      </c>
+      <c r="B120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>95</v>
+      </c>
+      <c r="B121" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>96</v>
+      </c>
+      <c r="B122" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>100</v>
+      </c>
+      <c r="B123" t="s">
+        <v>183</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>104</v>
+      </c>
+      <c r="B124" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>107</v>
+      </c>
+      <c r="B125" t="s">
+        <v>192</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>111</v>
+      </c>
+      <c r="B126" t="s">
+        <v>196</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>118</v>
+      </c>
+      <c r="B127" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>119</v>
+      </c>
+      <c r="B128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>120</v>
+      </c>
+      <c r="B129" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>121</v>
+      </c>
+      <c r="B130" t="s">
+        <v>206</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>122</v>
+      </c>
+      <c r="B131" t="s">
+        <v>207</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>123</v>
+      </c>
+      <c r="B132" t="s">
+        <v>208</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>126</v>
+      </c>
+      <c r="B133" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F176"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F176"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>48</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>51</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>54</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>55</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>56</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>57</v>
+      </c>
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>59</v>
+      </c>
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>60</v>
+      </c>
+      <c r="B83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>61</v>
+      </c>
+      <c r="B85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>62</v>
+      </c>
+      <c r="B86" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>62</v>
+      </c>
+      <c r="F86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>63</v>
+      </c>
+      <c r="B87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>64</v>
+      </c>
+      <c r="B88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>65</v>
+      </c>
+      <c r="B89" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>66</v>
+      </c>
+      <c r="B90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>67</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>70</v>
+      </c>
+      <c r="F91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>68</v>
+      </c>
+      <c r="B93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>69</v>
+      </c>
+      <c r="B94" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>71</v>
+      </c>
+      <c r="B96" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>72</v>
+      </c>
+      <c r="B97" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>70</v>
+      </c>
+      <c r="F97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>73</v>
+      </c>
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>74</v>
+      </c>
+      <c r="B99" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>62</v>
+      </c>
+      <c r="F99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>75</v>
+      </c>
+      <c r="B100" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>62</v>
+      </c>
+      <c r="F100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>76</v>
+      </c>
+      <c r="B102" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>70</v>
+      </c>
+      <c r="F102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>78</v>
+      </c>
+      <c r="B104" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>62</v>
+      </c>
+      <c r="F104" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>79</v>
+      </c>
+      <c r="B106" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>62</v>
+      </c>
+      <c r="F106" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>80</v>
+      </c>
+      <c r="B107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>62</v>
+      </c>
+      <c r="F107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>81</v>
+      </c>
+      <c r="B108" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>62</v>
+      </c>
+      <c r="F108" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>82</v>
+      </c>
+      <c r="B109" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>67</v>
+      </c>
+      <c r="F109" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>83</v>
+      </c>
+      <c r="B111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>84</v>
+      </c>
+      <c r="B112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>85</v>
+      </c>
+      <c r="B113" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>62</v>
+      </c>
+      <c r="F113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>86</v>
+      </c>
+      <c r="B115" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>67</v>
+      </c>
+      <c r="F115" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>87</v>
+      </c>
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>70</v>
+      </c>
+      <c r="F116" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>88</v>
+      </c>
+      <c r="B118" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>62</v>
+      </c>
+      <c r="F118" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>89</v>
+      </c>
+      <c r="B120" t="s">
+        <v>170</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>90</v>
+      </c>
+      <c r="B121" t="s">
+        <v>171</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>62</v>
+      </c>
+      <c r="F121" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>91</v>
+      </c>
+      <c r="B123" t="s">
+        <v>172</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>70</v>
+      </c>
+      <c r="F123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>92</v>
+      </c>
+      <c r="B125" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>67</v>
+      </c>
+      <c r="F125" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>93</v>
+      </c>
+      <c r="B126" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>70</v>
+      </c>
+      <c r="F126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>94</v>
+      </c>
+      <c r="B127" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>176</v>
+      </c>
+      <c r="F127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>71</v>
+      </c>
+      <c r="F128" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>95</v>
+      </c>
+      <c r="B130" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>176</v>
+      </c>
+      <c r="F130" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>96</v>
+      </c>
+      <c r="B132" t="s">
+        <v>179</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>176</v>
+      </c>
+      <c r="F132" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>97</v>
+      </c>
+      <c r="B133" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>70</v>
+      </c>
+      <c r="F133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>98</v>
+      </c>
+      <c r="B135" t="s">
+        <v>181</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F135" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>99</v>
+      </c>
+      <c r="B136" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136" t="s">
+        <v>176</v>
+      </c>
+      <c r="F136" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>100</v>
+      </c>
+      <c r="B137" t="s">
+        <v>183</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F137" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>101</v>
+      </c>
+      <c r="B138" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138" t="s">
+        <v>176</v>
+      </c>
+      <c r="F138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>102</v>
+      </c>
+      <c r="B139" t="s">
+        <v>185</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139" t="s">
+        <v>176</v>
+      </c>
+      <c r="F139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>103</v>
+      </c>
+      <c r="B140" t="s">
+        <v>187</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>188</v>
+      </c>
+      <c r="F140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>176</v>
+      </c>
+      <c r="F141" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>104</v>
+      </c>
+      <c r="B142" t="s">
+        <v>189</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>176</v>
+      </c>
+      <c r="F142" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>105</v>
+      </c>
+      <c r="B143" t="s">
+        <v>190</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>62</v>
+      </c>
+      <c r="F143" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>106</v>
+      </c>
+      <c r="B145" t="s">
+        <v>191</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>62</v>
+      </c>
+      <c r="F145" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>107</v>
+      </c>
+      <c r="B147" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>176</v>
+      </c>
+      <c r="F147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>108</v>
+      </c>
+      <c r="B148" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>176</v>
+      </c>
+      <c r="F148" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>109</v>
+      </c>
+      <c r="B149" t="s">
+        <v>194</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>67</v>
+      </c>
+      <c r="F149" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>110</v>
+      </c>
+      <c r="B151" t="s">
+        <v>195</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151" t="s">
+        <v>176</v>
+      </c>
+      <c r="F151" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>111</v>
+      </c>
+      <c r="B152" t="s">
+        <v>196</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>176</v>
+      </c>
+      <c r="F152" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>112</v>
+      </c>
+      <c r="B153" t="s">
+        <v>197</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>176</v>
+      </c>
+      <c r="F153" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>113</v>
+      </c>
+      <c r="B154" t="s">
+        <v>198</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>176</v>
+      </c>
+      <c r="F154" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>114</v>
+      </c>
+      <c r="B155" t="s">
+        <v>199</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>176</v>
+      </c>
+      <c r="F155" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>115</v>
+      </c>
+      <c r="B157" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>70</v>
+      </c>
+      <c r="F157" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>116</v>
+      </c>
+      <c r="B158" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>176</v>
+      </c>
+      <c r="F158" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>117</v>
+      </c>
+      <c r="B159" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>176</v>
+      </c>
+      <c r="F159" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>118</v>
+      </c>
+      <c r="B160" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>119</v>
+      </c>
+      <c r="B161" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>120</v>
+      </c>
+      <c r="B162" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>62</v>
+      </c>
+      <c r="F162" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>121</v>
+      </c>
+      <c r="B163" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>62</v>
+      </c>
+      <c r="F163" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>122</v>
+      </c>
+      <c r="B164" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>62</v>
+      </c>
+      <c r="F164" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>123</v>
+      </c>
+      <c r="B165" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>62</v>
+      </c>
+      <c r="F165" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>124</v>
+      </c>
+      <c r="B166" t="s">
+        <v>209</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166" t="s">
+        <v>176</v>
+      </c>
+      <c r="F166" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>125</v>
+      </c>
+      <c r="B167" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>70</v>
+      </c>
+      <c r="F167" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>126</v>
+      </c>
+      <c r="B168" t="s">
+        <v>211</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>127</v>
+      </c>
+      <c r="B169" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>213</v>
+      </c>
+      <c r="F169" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>128</v>
+      </c>
+      <c r="B171" t="s">
+        <v>215</v>
+      </c>
+      <c r="C171">
+        <v>4</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>129</v>
+      </c>
+      <c r="B172" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>4</v>
+      </c>
+      <c r="E172" t="s">
+        <v>176</v>
+      </c>
+      <c r="F172" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>130</v>
+      </c>
+      <c r="B173" t="s">
+        <v>217</v>
+      </c>
+      <c r="C173">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>62</v>
+      </c>
+      <c r="F173" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>131</v>
+      </c>
+      <c r="B175" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>4</v>
+      </c>
+      <c r="E175" t="s">
+        <v>70</v>
+      </c>
+      <c r="F175" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>132</v>
+      </c>
+      <c r="B176" t="s">
+        <v>219</v>
+      </c>
+      <c r="C176">
+        <v>4</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>70</v>
+      </c>
+      <c r="F176" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/TO_REVIEW.XLSX
+++ b/TO_REVIEW.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="247">
   <si>
     <t>STL</t>
   </si>
@@ -101,108 +101,6 @@
     <t>To Be committed</t>
   </si>
   <si>
-    <t>Problem 15 三数之和</t>
-  </si>
-  <si>
-    <t>Problem 18 四数之和</t>
-  </si>
-  <si>
-    <t>Problem 22 括号生成</t>
-  </si>
-  <si>
-    <t>Problem 33 搜索旋转排序数组</t>
-  </si>
-  <si>
-    <t>Problem 46 全排列</t>
-  </si>
-  <si>
-    <t>Problem 47 全排列 II</t>
-  </si>
-  <si>
-    <t>Problem 48 旋转图像</t>
-  </si>
-  <si>
-    <t>Problem 57 和为s的连续正序列</t>
-  </si>
-  <si>
-    <t>Problem 1375 灯泡开关</t>
-  </si>
-  <si>
-    <t>Problem 1374 生成每种字符都是奇数个的字符串</t>
-  </si>
-  <si>
-    <t>Problem 1376 通知所有员工所需的时间</t>
-  </si>
-  <si>
-    <t>Problem 39 组合总和</t>
-  </si>
-  <si>
-    <t>Problem 1380 矩阵中的幸运数</t>
-  </si>
-  <si>
-    <t>Problem 1381 设计一个支持增量操作的栈</t>
-  </si>
-  <si>
-    <t>Problem 40 组合总和II</t>
-  </si>
-  <si>
-    <t>Problem 1394 找出数组中的幸运数</t>
-  </si>
-  <si>
-    <t>Problem 1395 统计作战单位数</t>
-  </si>
-  <si>
-    <t>Problem 1396 设计地铁系统</t>
-  </si>
-  <si>
-    <t>Problem 49 字母异位词分组</t>
-  </si>
-  <si>
-    <t>Problem 1403 非递增顺序的最小子序列</t>
-  </si>
-  <si>
-    <t>Problem 1404 将二进制表示减到1的步骤数</t>
-  </si>
-  <si>
-    <t>Problem 1408 数组中的字符串匹配</t>
-  </si>
-  <si>
-    <t>Problem 1409 查询带键的排列</t>
-  </si>
-  <si>
-    <t>Problem 1410 HTML实体解析器</t>
-  </si>
-  <si>
-    <t>Problem 50 Pow(x,n)</t>
-  </si>
-  <si>
-    <t>Problem 9 回文数</t>
-  </si>
-  <si>
-    <t>Problem 54 螺旋矩阵</t>
-  </si>
-  <si>
-    <t>Problem 55 跳跃游戏</t>
-  </si>
-  <si>
-    <t>Problem 13 罗马数字转整数</t>
-  </si>
-  <si>
-    <t>Problem 16 最接近的三数之和</t>
-  </si>
-  <si>
-    <t>Problem 5388 重新格式化字符串</t>
-  </si>
-  <si>
-    <t>Problem 5372 逐步求和得到正数的最小值</t>
-  </si>
-  <si>
-    <t>Problem 5389 点菜展示表</t>
-  </si>
-  <si>
-    <t>Problem 56 合并区间</t>
-  </si>
-  <si>
     <t>中等</t>
   </si>
   <si>
@@ -699,13 +597,178 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>#61 旋转链表</t>
+  </si>
+  <si>
+    <t>#14 最长公共前缀</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>#60 第k个排列</t>
+  </si>
+  <si>
+    <t>#1422 分割字符串的最大得分</t>
+  </si>
+  <si>
+    <t>#1423 可获得的最大点数</t>
+  </si>
+  <si>
+    <t>#20 有效的括号</t>
+  </si>
+  <si>
+    <t>#1424 对角线遍历 II</t>
+  </si>
+  <si>
+    <t>#27 移除元素</t>
+  </si>
+  <si>
+    <t>#31 下一个排列</t>
+  </si>
+  <si>
+    <t>#62 不同路径</t>
+  </si>
+  <si>
+    <t>#63 不同路径 II</t>
+  </si>
+  <si>
+    <t>#1436 旅行终点站</t>
+  </si>
+  <si>
+    <t>#1437 是否所有 1 都至少相隔 k 个元素</t>
+  </si>
+  <si>
+    <t>#1438 绝对差不超过限制的最长连续子数组</t>
+  </si>
+  <si>
+    <t>#64 最小路径和</t>
+  </si>
+  <si>
+    <t>#71 简化路径</t>
+  </si>
+  <si>
+    <t>#21 合并两个有序链表</t>
+  </si>
+  <si>
+    <t>#73 矩阵置零</t>
+  </si>
+  <si>
+    <t>#28 实现 strStr()</t>
+  </si>
+  <si>
+    <t>#53 最大子序和</t>
+  </si>
+  <si>
+    <t>#15 三数之和</t>
+  </si>
+  <si>
+    <t>#22 括号生成</t>
+  </si>
+  <si>
+    <t>#33 搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>#46 全排列</t>
+  </si>
+  <si>
+    <t>#47 全排列 II</t>
+  </si>
+  <si>
+    <t>#48 旋转图像</t>
+  </si>
+  <si>
+    <t>#100324 和为s的连续正数序列</t>
+  </si>
+  <si>
+    <t>#1375 灯泡开关 III</t>
+  </si>
+  <si>
+    <t>#1374 生成每种字符都是奇数个的字符串</t>
+  </si>
+  <si>
+    <t>#1376 通知所有员工所需的时间</t>
+  </si>
+  <si>
+    <t>#1380 矩阵中的幸运数</t>
+  </si>
+  <si>
+    <t>#1381 设计一个支持增量操作的栈</t>
+  </si>
+  <si>
+    <t>#40 组合总和 II</t>
+  </si>
+  <si>
+    <t>#39 组合总和</t>
+  </si>
+  <si>
+    <t>#1394 找出数组中的幸运数</t>
+  </si>
+  <si>
+    <t>#1395 统计作战单位数</t>
+  </si>
+  <si>
+    <t>#1396 设计地铁系统</t>
+  </si>
+  <si>
+    <t>#49 字母异位词分组</t>
+  </si>
+  <si>
+    <t>#1403 非递增顺序的最小子序列</t>
+  </si>
+  <si>
+    <t>#1404 将二进制表示减到 1 的步骤数</t>
+  </si>
+  <si>
+    <t>#1408 数组中的字符串匹配</t>
+  </si>
+  <si>
+    <t>#1409 查询带键的排列</t>
+  </si>
+  <si>
+    <t>#1410 HTML 实体解析器</t>
+  </si>
+  <si>
+    <t>#50 Pow(x, n)</t>
+  </si>
+  <si>
+    <t>#9 回文数</t>
+  </si>
+  <si>
+    <t>#54 螺旋矩阵</t>
+  </si>
+  <si>
+    <t>#13 罗马数字转整数</t>
+  </si>
+  <si>
+    <t>#55 跳跃游戏</t>
+  </si>
+  <si>
+    <t>#1413 逐步求和得到正数的最小值</t>
+  </si>
+  <si>
+    <t>#1417 重新格式化字符串</t>
+  </si>
+  <si>
+    <t>#1418 点菜展示表</t>
+  </si>
+  <si>
+    <t>#56 合并区间</t>
+  </si>
+  <si>
+    <t>#18 四数之和</t>
+  </si>
+  <si>
+    <t>#16 最接近的三数之和</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,16 +776,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -730,17 +806,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1035,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1140,7 @@
     <col min="1" max="16384" width="30.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1066,7 +1160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1088,11 +1182,18 @@
       <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,199 +1209,732 @@
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H32" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="H33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H34" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="H10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I12" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14" t="s">
+        <v>194</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>224</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>226</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>230</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>231</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>232</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>235</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>236</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>237</v>
+      </c>
+      <c r="I28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>238</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>240</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>241</v>
+      </c>
+      <c r="I32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>242</v>
+      </c>
+      <c r="I33" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>243</v>
+      </c>
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>244</v>
+      </c>
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>192</v>
+      </c>
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" t="s">
+        <v>194</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>197</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>199</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>201</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>202</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>204</v>
+      </c>
+      <c r="I47" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+    </row>
+    <row r="51" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>208</v>
+      </c>
+      <c r="I51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+    </row>
+    <row r="52" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>209</v>
+      </c>
+      <c r="I52" t="s">
+        <v>194</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+    </row>
+    <row r="53" spans="8:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="8:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="8:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="8:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H36" r:id="rId1" display="https://leetcode-cn.com/problems/rotate-list"/>
+    <hyperlink ref="H37" r:id="rId2" display="https://leetcode-cn.com/problems/longest-common-prefix"/>
+    <hyperlink ref="H38" r:id="rId3" display="https://leetcode-cn.com/problems/permutation-sequence"/>
+    <hyperlink ref="H39" r:id="rId4" display="https://leetcode-cn.com/problems/maximum-score-after-splitting-a-string"/>
+    <hyperlink ref="H40" r:id="rId5" display="https://leetcode-cn.com/problems/maximum-points-you-can-obtain-from-cards"/>
+    <hyperlink ref="H41" r:id="rId6" display="https://leetcode-cn.com/problems/valid-parentheses"/>
+    <hyperlink ref="H42" r:id="rId7" display="https://leetcode-cn.com/problems/diagonal-traverse-ii"/>
+    <hyperlink ref="H43" r:id="rId8" display="https://leetcode-cn.com/problems/remove-element"/>
+    <hyperlink ref="H44" r:id="rId9" display="https://leetcode-cn.com/problems/next-permutation"/>
+    <hyperlink ref="H45" r:id="rId10" display="https://leetcode-cn.com/problems/unique-paths"/>
+    <hyperlink ref="H46" r:id="rId11" display="https://leetcode-cn.com/problems/unique-paths-ii"/>
+    <hyperlink ref="H47" r:id="rId12" display="https://leetcode-cn.com/problems/destination-city"/>
+    <hyperlink ref="H48" r:id="rId13" display="https://leetcode-cn.com/problems/check-if-all-1s-are-at-least-length-k-places-away"/>
+    <hyperlink ref="H49" r:id="rId14" display="https://leetcode-cn.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit"/>
+    <hyperlink ref="H50" r:id="rId15" display="https://leetcode-cn.com/problems/minimum-path-sum"/>
+    <hyperlink ref="H51" r:id="rId16" display="https://leetcode-cn.com/problems/simplify-path"/>
+    <hyperlink ref="H52" r:id="rId17" display="https://leetcode-cn.com/problems/merge-two-sorted-lists"/>
+    <hyperlink ref="H53" r:id="rId18" display="https://leetcode-cn.com/problems/set-matrix-zeroes"/>
+    <hyperlink ref="H54" r:id="rId19" display="https://leetcode-cn.com/problems/implement-strstr"/>
+    <hyperlink ref="H55" r:id="rId20" display="https://leetcode-cn.com/problems/maximum-subarray"/>
+    <hyperlink ref="H4" r:id="rId21" display="https://leetcode-cn.com/problems/3sum"/>
+    <hyperlink ref="H5" r:id="rId22" display="https://leetcode-cn.com/problems/generate-parentheses"/>
+    <hyperlink ref="H6" r:id="rId23" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array"/>
+    <hyperlink ref="H7" r:id="rId24" display="https://leetcode-cn.com/problems/permutations"/>
+    <hyperlink ref="H8" r:id="rId25" display="https://leetcode-cn.com/problems/permutations-ii"/>
+    <hyperlink ref="H9" r:id="rId26" display="https://leetcode-cn.com/problems/rotate-image"/>
+    <hyperlink ref="H10" r:id="rId27" display="https://leetcode-cn.com/problems/he-wei-sde-lian-xu-zheng-shu-xu-lie-lcof"/>
+    <hyperlink ref="H11" r:id="rId28" display="https://leetcode-cn.com/problems/bulb-switcher-iii"/>
+    <hyperlink ref="H12" r:id="rId29" display="https://leetcode-cn.com/problems/generate-a-string-with-characters-that-have-odd-counts"/>
+    <hyperlink ref="H13" r:id="rId30" display="https://leetcode-cn.com/problems/time-needed-to-inform-all-employees"/>
+    <hyperlink ref="H14" r:id="rId31" display="https://leetcode-cn.com/problems/lucky-numbers-in-a-matrix"/>
+    <hyperlink ref="H15" r:id="rId32" display="https://leetcode-cn.com/problems/design-a-stack-with-increment-operation"/>
+    <hyperlink ref="H16" r:id="rId33" display="https://leetcode-cn.com/problems/combination-sum-ii"/>
+    <hyperlink ref="H17" r:id="rId34" display="https://leetcode-cn.com/problems/combination-sum"/>
+    <hyperlink ref="H18" r:id="rId35" display="https://leetcode-cn.com/problems/find-lucky-integer-in-an-array"/>
+    <hyperlink ref="H19" r:id="rId36" display="https://leetcode-cn.com/problems/count-number-of-teams"/>
+    <hyperlink ref="H20" r:id="rId37" display="https://leetcode-cn.com/problems/design-underground-system"/>
+    <hyperlink ref="H21" r:id="rId38" display="https://leetcode-cn.com/problems/group-anagrams"/>
+    <hyperlink ref="H22" r:id="rId39" display="https://leetcode-cn.com/problems/minimum-subsequence-in-non-increasing-order"/>
+    <hyperlink ref="H23" r:id="rId40" display="https://leetcode-cn.com/problems/number-of-steps-to-reduce-a-number-in-binary-representation-to-one"/>
+    <hyperlink ref="H24" r:id="rId41" display="https://leetcode-cn.com/problems/string-matching-in-an-array"/>
+    <hyperlink ref="H25" r:id="rId42" display="https://leetcode-cn.com/problems/queries-on-a-permutation-with-key"/>
+    <hyperlink ref="H26" r:id="rId43" display="https://leetcode-cn.com/problems/html-entity-parser"/>
+    <hyperlink ref="H27" r:id="rId44" display="https://leetcode-cn.com/problems/powx-n"/>
+    <hyperlink ref="H28" r:id="rId45" display="https://leetcode-cn.com/problems/palindrome-number"/>
+    <hyperlink ref="H29" r:id="rId46" display="https://leetcode-cn.com/problems/spiral-matrix"/>
+    <hyperlink ref="H30" r:id="rId47" display="https://leetcode-cn.com/problems/roman-to-integer"/>
+    <hyperlink ref="H31" r:id="rId48" display="https://leetcode-cn.com/problems/jump-game"/>
+    <hyperlink ref="H32" r:id="rId49" display="https://leetcode-cn.com/problems/minimum-value-to-get-positive-step-by-step-sum"/>
+    <hyperlink ref="H33" r:id="rId50" display="https://leetcode-cn.com/problems/reformat-the-string"/>
+    <hyperlink ref="H34" r:id="rId51" display="https://leetcode-cn.com/problems/display-table-of-food-orders-in-a-restaurant"/>
+    <hyperlink ref="H35" r:id="rId52" display="https://leetcode-cn.com/problems/merge-intervals"/>
+    <hyperlink ref="H2" r:id="rId53" display="https://leetcode-cn.com/problems/4sum"/>
+    <hyperlink ref="H3" r:id="rId54" display="https://leetcode-cn.com/problems/3sum-closest"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -1308,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1321,16 +1955,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1338,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1352,7 +1986,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1366,7 +2000,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1380,7 +2014,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1394,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1408,7 +2042,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1422,7 +2056,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1436,7 +2070,7 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1450,7 +2084,7 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1464,7 +2098,7 @@
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1478,7 +2112,7 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1492,7 +2126,7 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1506,7 +2140,7 @@
         <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1520,7 +2154,7 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1534,7 +2168,7 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1548,7 +2182,7 @@
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1562,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1576,7 +2210,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1590,7 +2224,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1604,7 +2238,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1618,7 +2252,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1632,7 +2266,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1646,7 +2280,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1660,7 +2294,7 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1674,7 +2308,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1688,7 +2322,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1702,7 +2336,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1716,7 +2350,7 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1730,7 +2364,7 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1744,7 +2378,7 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1758,7 +2392,7 @@
         <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1772,7 +2406,7 @@
         <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1786,7 +2420,7 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1800,7 +2434,7 @@
         <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1814,7 +2448,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1828,7 +2462,7 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1842,7 +2476,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1856,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1870,7 +2504,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -1884,7 +2518,7 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1898,7 +2532,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1912,7 +2546,7 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1926,7 +2560,7 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1940,7 +2574,7 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1954,7 +2588,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1968,7 +2602,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1982,7 +2616,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1996,7 +2630,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -2010,7 +2644,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2024,7 +2658,7 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -2038,7 +2672,7 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2052,7 +2686,7 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -2066,7 +2700,7 @@
         <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -2080,7 +2714,7 @@
         <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -2094,7 +2728,7 @@
         <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -2108,7 +2742,7 @@
         <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -2122,7 +2756,7 @@
         <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2136,7 +2770,7 @@
         <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -2150,7 +2784,7 @@
         <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -2164,7 +2798,7 @@
         <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -2178,7 +2812,7 @@
         <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -2192,7 +2826,7 @@
         <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -2206,7 +2840,7 @@
         <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -2220,7 +2854,7 @@
         <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -2234,7 +2868,7 @@
         <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -2248,7 +2882,7 @@
         <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2262,7 +2896,7 @@
         <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -2276,7 +2910,7 @@
         <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -2290,7 +2924,7 @@
         <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -2304,7 +2938,7 @@
         <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -2318,7 +2952,7 @@
         <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -2332,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -2346,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -2360,7 +2994,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -2374,7 +3008,7 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -2388,7 +3022,7 @@
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -2402,7 +3036,7 @@
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -2416,7 +3050,7 @@
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -2430,7 +3064,7 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -2444,7 +3078,7 @@
         <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -2458,7 +3092,7 @@
         <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -2472,7 +3106,7 @@
         <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -2486,7 +3120,7 @@
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -2500,7 +3134,7 @@
         <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -2514,7 +3148,7 @@
         <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -2528,7 +3162,7 @@
         <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -2542,7 +3176,7 @@
         <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -2556,7 +3190,7 @@
         <v>48</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -2570,7 +3204,7 @@
         <v>54</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -2584,7 +3218,7 @@
         <v>55</v>
       </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -2598,7 +3232,7 @@
         <v>59</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -2612,7 +3246,7 @@
         <v>61</v>
       </c>
       <c r="B93" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -2626,7 +3260,7 @@
         <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -2640,7 +3274,7 @@
         <v>68</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2654,7 +3288,7 @@
         <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2668,7 +3302,7 @@
         <v>76</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2682,7 +3316,7 @@
         <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -2696,7 +3330,7 @@
         <v>84</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -2710,7 +3344,7 @@
         <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -2724,7 +3358,7 @@
         <v>89</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2738,7 +3372,7 @@
         <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2752,7 +3386,7 @@
         <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -2766,7 +3400,7 @@
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -2780,7 +3414,7 @@
         <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2794,7 +3428,7 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2808,7 +3442,7 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2822,7 +3456,7 @@
         <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -2836,7 +3470,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -2850,7 +3484,7 @@
         <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -2864,7 +3498,7 @@
         <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -2878,7 +3512,7 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -2892,7 +3526,7 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -2906,7 +3540,7 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -2920,7 +3554,7 @@
         <v>30</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -2934,7 +3568,7 @@
         <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -2948,7 +3582,7 @@
         <v>58</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -2962,7 +3596,7 @@
         <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C118">
         <v>5</v>
@@ -2976,7 +3610,7 @@
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -2990,7 +3624,7 @@
         <v>85</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C120">
         <v>5</v>
@@ -3004,7 +3638,7 @@
         <v>95</v>
       </c>
       <c r="B121" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -3018,7 +3652,7 @@
         <v>96</v>
       </c>
       <c r="B122" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C122">
         <v>3</v>
@@ -3032,7 +3666,7 @@
         <v>100</v>
       </c>
       <c r="B123" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3046,7 +3680,7 @@
         <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3060,7 +3694,7 @@
         <v>107</v>
       </c>
       <c r="B125" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -3074,7 +3708,7 @@
         <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3088,7 +3722,7 @@
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -3102,7 +3736,7 @@
         <v>119</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -3116,7 +3750,7 @@
         <v>120</v>
       </c>
       <c r="B129" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -3130,7 +3764,7 @@
         <v>121</v>
       </c>
       <c r="B130" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -3144,7 +3778,7 @@
         <v>122</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="C131">
         <v>3</v>
@@ -3158,7 +3792,7 @@
         <v>123</v>
       </c>
       <c r="B132" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C132">
         <v>4</v>
@@ -3172,7 +3806,7 @@
         <v>126</v>
       </c>
       <c r="B133" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3202,22 +3836,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -3234,18 +3868,18 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3253,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3262,15 +3896,15 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3278,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -3287,15 +3921,15 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3303,7 +3937,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -3312,10 +3946,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,7 +3957,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3332,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3340,7 +3974,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -3349,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3357,7 +3991,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3366,7 +4000,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3374,7 +4008,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3383,10 +4017,10 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3394,7 +4028,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -3403,7 +4037,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3411,7 +4045,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -3420,15 +4054,15 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3436,7 +4070,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3445,10 +4079,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3456,7 +4090,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -3465,7 +4099,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3473,7 +4107,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3482,7 +4116,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3490,7 +4124,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -3499,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3507,7 +4141,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -3516,10 +4150,10 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3527,7 +4161,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3536,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3547,7 +4181,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -3556,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3567,7 +4201,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -3576,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3584,7 +4218,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -3593,10 +4227,10 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3604,7 +4238,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3613,10 +4247,10 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3624,7 +4258,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -3633,20 +4267,20 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3654,7 +4288,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -3663,10 +4297,10 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3674,7 +4308,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -3683,23 +4317,23 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,7 +4341,7 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3716,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,7 +4358,7 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -3733,15 +4367,15 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3749,7 +4383,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3758,10 +4392,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3769,7 +4403,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3778,10 +4412,10 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3789,7 +4423,7 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -3798,20 +4432,20 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3819,7 +4453,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -3828,12 +4462,12 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3841,7 +4475,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -3850,10 +4484,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3861,7 +4495,7 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -3870,10 +4504,10 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3881,7 +4515,7 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -3890,10 +4524,10 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3901,7 +4535,7 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -3910,10 +4544,10 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3921,7 +4555,7 @@
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -3930,10 +4564,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3941,7 +4575,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -3950,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3958,7 +4592,7 @@
         <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3967,7 +4601,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3975,7 +4609,7 @@
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -3984,10 +4618,10 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3995,7 +4629,7 @@
         <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -4004,10 +4638,10 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,7 +4649,7 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -4024,10 +4658,10 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4035,7 +4669,7 @@
         <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -4044,10 +4678,10 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,7 +4689,7 @@
         <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -4064,10 +4698,10 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4075,7 +4709,7 @@
         <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -4084,15 +4718,15 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4100,7 +4734,7 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -4109,15 +4743,15 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,7 +4759,7 @@
         <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -4134,20 +4768,20 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,7 +4789,7 @@
         <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -4164,7 +4798,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4172,7 +4806,7 @@
         <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -4181,10 +4815,10 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4192,7 +4826,7 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -4201,10 +4835,10 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4212,7 +4846,7 @@
         <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -4221,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4229,7 +4863,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -4238,12 +4872,12 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4251,7 +4885,7 @@
         <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -4260,12 +4894,12 @@
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4273,7 +4907,7 @@
         <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -4282,10 +4916,10 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4293,7 +4927,7 @@
         <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4302,10 +4936,10 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4313,7 +4947,7 @@
         <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -4322,10 +4956,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4333,7 +4967,7 @@
         <v>54</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -4342,7 +4976,7 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,7 +4984,7 @@
         <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -4359,7 +4993,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4367,7 +5001,7 @@
         <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -4376,23 +5010,23 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4400,7 +5034,7 @@
         <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -4409,23 +5043,23 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4433,7 +5067,7 @@
         <v>58</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4442,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4450,7 +5084,7 @@
         <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -4459,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4467,7 +5101,7 @@
         <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -4476,12 +5110,12 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4489,7 +5123,7 @@
         <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -4498,10 +5132,10 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4509,7 +5143,7 @@
         <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -4518,10 +5152,10 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F86" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4529,7 +5163,7 @@
         <v>63</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -4538,10 +5172,10 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F87" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4549,7 +5183,7 @@
         <v>64</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -4558,10 +5192,10 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4569,7 +5203,7 @@
         <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -4578,10 +5212,10 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4589,7 +5223,7 @@
         <v>66</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4598,10 +5232,10 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F90" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4609,7 +5243,7 @@
         <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -4618,15 +5252,15 @@
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4634,7 +5268,7 @@
         <v>68</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -4643,7 +5277,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4651,7 +5285,7 @@
         <v>69</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -4660,7 +5294,7 @@
         <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4668,7 +5302,7 @@
         <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -4677,7 +5311,7 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4685,7 +5319,7 @@
         <v>71</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -4694,10 +5328,10 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4705,7 +5339,7 @@
         <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -4714,10 +5348,10 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4725,7 +5359,7 @@
         <v>73</v>
       </c>
       <c r="B98" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -4734,7 +5368,7 @@
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4742,7 +5376,7 @@
         <v>74</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -4751,10 +5385,10 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4762,7 +5396,7 @@
         <v>75</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -4771,15 +5405,15 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F100" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4787,7 +5421,7 @@
         <v>76</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -4796,10 +5430,10 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4807,7 +5441,7 @@
         <v>77</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -4816,7 +5450,7 @@
         <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4824,7 +5458,7 @@
         <v>78</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -4833,15 +5467,15 @@
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4849,7 +5483,7 @@
         <v>79</v>
       </c>
       <c r="B106" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -4858,10 +5492,10 @@
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,7 +5503,7 @@
         <v>80</v>
       </c>
       <c r="B107" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -4878,10 +5512,10 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4889,7 +5523,7 @@
         <v>81</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -4898,10 +5532,10 @@
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F108" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4909,7 +5543,7 @@
         <v>82</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -4918,15 +5552,15 @@
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4934,7 +5568,7 @@
         <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -4943,7 +5577,7 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4951,7 +5585,7 @@
         <v>84</v>
       </c>
       <c r="B112" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C112">
         <v>5</v>
@@ -4960,10 +5594,10 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4971,7 +5605,7 @@
         <v>85</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C113">
         <v>5</v>
@@ -4980,15 +5614,15 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4996,7 +5630,7 @@
         <v>86</v>
       </c>
       <c r="B115" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -5005,10 +5639,10 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F115" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -5016,7 +5650,7 @@
         <v>87</v>
       </c>
       <c r="B116" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C116">
         <v>5</v>
@@ -5025,15 +5659,15 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -5041,7 +5675,7 @@
         <v>88</v>
       </c>
       <c r="B118" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -5050,15 +5684,15 @@
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F118" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,7 +5700,7 @@
         <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -5075,7 +5709,7 @@
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -5083,7 +5717,7 @@
         <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -5092,15 +5726,15 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F121" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -5108,7 +5742,7 @@
         <v>91</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -5117,15 +5751,15 @@
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -5133,7 +5767,7 @@
         <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -5142,10 +5776,10 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -5153,7 +5787,7 @@
         <v>93</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C126">
         <v>3</v>
@@ -5162,10 +5796,10 @@
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5173,7 +5807,7 @@
         <v>94</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C127">
         <v>4</v>
@@ -5182,23 +5816,23 @@
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F127" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -5206,7 +5840,7 @@
         <v>95</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -5215,15 +5849,15 @@
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F130" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -5231,7 +5865,7 @@
         <v>96</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -5240,10 +5874,10 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F132" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -5251,7 +5885,7 @@
         <v>97</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -5260,15 +5894,15 @@
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -5276,7 +5910,7 @@
         <v>98</v>
       </c>
       <c r="B135" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -5285,10 +5919,10 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F135" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5296,7 +5930,7 @@
         <v>99</v>
       </c>
       <c r="B136" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -5305,10 +5939,10 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F136" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5316,7 +5950,7 @@
         <v>100</v>
       </c>
       <c r="B137" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -5325,10 +5959,10 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F137" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5336,7 +5970,7 @@
         <v>101</v>
       </c>
       <c r="B138" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -5345,10 +5979,10 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F138" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5356,7 +5990,7 @@
         <v>102</v>
       </c>
       <c r="B139" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -5365,10 +5999,10 @@
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F139" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5376,7 +6010,7 @@
         <v>103</v>
       </c>
       <c r="B140" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -5385,18 +6019,18 @@
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="F140" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F141" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5404,7 +6038,7 @@
         <v>104</v>
       </c>
       <c r="B142" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -5413,10 +6047,10 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F142" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5424,7 +6058,7 @@
         <v>105</v>
       </c>
       <c r="B143" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -5433,15 +6067,15 @@
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F143" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5449,7 +6083,7 @@
         <v>106</v>
       </c>
       <c r="B145" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -5458,15 +6092,15 @@
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F145" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5474,7 +6108,7 @@
         <v>107</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -5483,10 +6117,10 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F147" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5494,7 +6128,7 @@
         <v>108</v>
       </c>
       <c r="B148" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -5503,10 +6137,10 @@
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F148" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5514,7 +6148,7 @@
         <v>109</v>
       </c>
       <c r="B149" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -5523,15 +6157,15 @@
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5539,7 +6173,7 @@
         <v>110</v>
       </c>
       <c r="B151" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -5548,10 +6182,10 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F151" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5559,7 +6193,7 @@
         <v>111</v>
       </c>
       <c r="B152" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -5568,10 +6202,10 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F152" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5579,7 +6213,7 @@
         <v>112</v>
       </c>
       <c r="B153" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -5588,10 +6222,10 @@
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F153" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5599,7 +6233,7 @@
         <v>113</v>
       </c>
       <c r="B154" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -5608,10 +6242,10 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F154" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5619,7 +6253,7 @@
         <v>114</v>
       </c>
       <c r="B155" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -5628,15 +6262,15 @@
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F155" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,7 +6278,7 @@
         <v>115</v>
       </c>
       <c r="B157" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C157">
         <v>4</v>
@@ -5653,10 +6287,10 @@
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5664,7 +6298,7 @@
         <v>116</v>
       </c>
       <c r="B158" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -5673,10 +6307,10 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F158" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5684,7 +6318,7 @@
         <v>117</v>
       </c>
       <c r="B159" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="C159">
         <v>4</v>
@@ -5693,10 +6327,10 @@
         <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F159" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5704,7 +6338,7 @@
         <v>118</v>
       </c>
       <c r="B160" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="C160">
         <v>2</v>
@@ -5713,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5721,7 +6355,7 @@
         <v>119</v>
       </c>
       <c r="B161" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -5730,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5738,7 +6372,7 @@
         <v>120</v>
       </c>
       <c r="B162" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="C162">
         <v>3</v>
@@ -5747,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F162" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5758,7 +6392,7 @@
         <v>121</v>
       </c>
       <c r="B163" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -5767,10 +6401,10 @@
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F163" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5778,7 +6412,7 @@
         <v>122</v>
       </c>
       <c r="B164" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -5787,10 +6421,10 @@
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F164" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5798,7 +6432,7 @@
         <v>123</v>
       </c>
       <c r="B165" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -5807,10 +6441,10 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F165" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5818,7 +6452,7 @@
         <v>124</v>
       </c>
       <c r="B166" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="C166">
         <v>4</v>
@@ -5827,10 +6461,10 @@
         <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F166" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5838,7 +6472,7 @@
         <v>125</v>
       </c>
       <c r="B167" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -5847,10 +6481,10 @@
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5858,7 +6492,7 @@
         <v>126</v>
       </c>
       <c r="B168" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -5872,7 +6506,7 @@
         <v>127</v>
       </c>
       <c r="B169" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="C169">
         <v>3</v>
@@ -5881,15 +6515,15 @@
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="F169" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F170" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5897,7 +6531,7 @@
         <v>128</v>
       </c>
       <c r="B171" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="C171">
         <v>4</v>
@@ -5906,7 +6540,7 @@
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5914,7 +6548,7 @@
         <v>129</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C172">
         <v>2</v>
@@ -5923,10 +6557,10 @@
         <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F172" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5934,7 +6568,7 @@
         <v>130</v>
       </c>
       <c r="B173" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C173">
         <v>4</v>
@@ -5943,15 +6577,15 @@
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F173" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F174" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5959,7 +6593,7 @@
         <v>131</v>
       </c>
       <c r="B175" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="C175">
         <v>3</v>
@@ -5968,10 +6602,10 @@
         <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5979,7 +6613,7 @@
         <v>132</v>
       </c>
       <c r="B176" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="C176">
         <v>4</v>
@@ -5988,10 +6622,10 @@
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
